--- a/borrower_report.xlsx
+++ b/borrower_report.xlsx
@@ -34,6 +34,9 @@
     <t>Jean Fermaint</t>
   </si>
   <si>
+    <t>7001</t>
+  </si>
+  <si>
     <t>thefake@mail.com</t>
   </si>
   <si>
@@ -43,12 +46,12 @@
     <t>Student</t>
   </si>
   <si>
-    <t>7001</t>
-  </si>
-  <si>
     <t>Kari Fermaint</t>
   </si>
   <si>
+    <t>7002</t>
+  </si>
+  <si>
     <t>yeyei@fakemail.com</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t>Faculty</t>
-  </si>
-  <si>
-    <t>7002</t>
   </si>
 </sst>
 </file>

--- a/borrower_report.xlsx
+++ b/borrower_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>borrower name</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Faculty</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>7003</t>
+  </si>
+  <si>
+    <t>fke</t>
+  </si>
+  <si>
+    <t>910</t>
   </si>
 </sst>
 </file>
@@ -390,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,6 +459,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
